--- a/HUBS.xlsx
+++ b/HUBS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23175A7D-447D-48EA-A5C4-EC8BB1348B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D23BC27-5AFC-40C6-BDBD-1CBA9EB44758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28350" yWindow="510" windowWidth="28260" windowHeight="20325" activeTab="1" xr2:uid="{FDA70B40-2F27-47CC-B87B-E14D5E7D7981}"/>
+    <workbookView xWindow="-27405" yWindow="3630" windowWidth="21750" windowHeight="17115" xr2:uid="{FDA70B40-2F27-47CC-B87B-E14D5E7D7981}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>Price</t>
   </si>
@@ -145,6 +145,18 @@
   </si>
   <si>
     <t>Customers</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
   </si>
 </sst>
 </file>
@@ -230,16 +242,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>32524</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>45513</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>32524</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>32524</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>45513</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>78988</xdr:rowOff>
+      <xdr:rowOff>46464</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -254,8 +266,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7197183" y="32524"/>
-          <a:ext cx="0" cy="5250366"/>
+          <a:off x="8340922" y="0"/>
+          <a:ext cx="0" cy="5493032"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -600,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854D1E91-CF1C-43CA-A546-43DCCCC675A2}">
   <dimension ref="J2:L7"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -674,28 +686,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1A20F7-A4EB-4F76-B0FA-B4F3AEE3BACD}">
-  <dimension ref="A1:V31"/>
+  <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="V5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U7" sqref="U7"/>
+      <selection pane="bottomRight" activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="8.42578125" style="2" customWidth="1"/>
+    <col min="3" max="18" width="8.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
@@ -732,26 +744,38 @@
       <c r="N2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2">
+      <c r="O2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2">
         <v>2020</v>
       </c>
-      <c r="R2">
+      <c r="V2">
         <v>2021</v>
       </c>
-      <c r="S2">
+      <c r="W2">
         <v>2022</v>
       </c>
-      <c r="T2">
+      <c r="X2">
         <v>2023</v>
       </c>
-      <c r="U2">
+      <c r="Y2">
         <v>2024</v>
       </c>
-      <c r="V2">
+      <c r="Z2">
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>35</v>
       </c>
@@ -769,17 +793,21 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-      <c r="Q3" s="1">
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="U3" s="1">
         <v>103.994</v>
       </c>
-      <c r="R3" s="1">
+      <c r="V3" s="1">
         <v>135.44200000000001</v>
       </c>
-      <c r="S3" s="1">
+      <c r="W3" s="1">
         <v>167.386</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -811,17 +839,21 @@
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-      <c r="Q5" s="1">
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="U5" s="1">
         <v>853.02499999999998</v>
       </c>
-      <c r="R5" s="1">
+      <c r="V5" s="1">
         <v>1258.319</v>
       </c>
-      <c r="S5" s="1">
+      <c r="W5" s="1">
         <v>1690.538</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
@@ -853,17 +885,21 @@
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="Q6" s="1">
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="U6" s="1">
         <v>30.001000000000001</v>
       </c>
-      <c r="R6" s="1">
+      <c r="V6" s="1">
         <v>42.338999999999999</v>
       </c>
-      <c r="S6" s="1">
+      <c r="W6" s="1">
         <v>40.430999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
@@ -908,31 +944,37 @@
         <v>637.23</v>
       </c>
       <c r="M7" s="5">
-        <f>+I7*1.2</f>
-        <v>669.0684</v>
+        <v>669.7</v>
       </c>
       <c r="N7" s="5">
-        <f>+J7*1.2</f>
-        <v>698.29679999999996</v>
-      </c>
-      <c r="Q7" s="4">
-        <f>+Q5+Q6</f>
+        <v>703.2</v>
+      </c>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="U7" s="4">
+        <f>+U5+U6</f>
         <v>883.02599999999995</v>
       </c>
-      <c r="R7" s="4">
-        <f>+R5+R6</f>
+      <c r="V7" s="4">
+        <f>+V5+V6</f>
         <v>1300.6579999999999</v>
       </c>
-      <c r="S7" s="4">
-        <f>+S5+S6</f>
+      <c r="W7" s="4">
+        <f>+W5+W6</f>
         <v>1730.9690000000001</v>
       </c>
-      <c r="T7" s="4">
+      <c r="X7" s="4">
+        <f>SUM(G7:J7)</f>
+        <v>2170.2290000000003</v>
+      </c>
+      <c r="Y7" s="4">
         <f>SUM(K7:N7)</f>
-        <v>2622.0092</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>2627.5439999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
@@ -962,72 +1004,104 @@
       <c r="L8" s="3">
         <v>95.516999999999996</v>
       </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="Q8" s="1">
+      <c r="M8" s="3">
+        <f>+L8</f>
+        <v>95.516999999999996</v>
+      </c>
+      <c r="N8" s="3">
+        <f>+M8</f>
+        <v>95.516999999999996</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="U8" s="1">
         <v>166.959</v>
       </c>
-      <c r="R8" s="1">
+      <c r="V8" s="1">
         <v>258.85700000000003</v>
       </c>
-      <c r="S8" s="1">
+      <c r="W8" s="1">
         <v>314.25900000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y8" s="1">
+        <f>SUM(K8:N8)</f>
+        <v>381.63899999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3">
-        <f>+E7-E8</f>
+        <f t="shared" ref="E9:N9" si="1">+E7-E8</f>
         <v>361.83099999999996</v>
       </c>
       <c r="F9" s="3">
-        <f>+F7-F8</f>
+        <f t="shared" si="1"/>
         <v>389.39300000000003</v>
       </c>
       <c r="G9" s="3">
-        <f>+G7-G8</f>
+        <f t="shared" si="1"/>
         <v>421.291</v>
       </c>
       <c r="H9" s="3">
-        <f>+H7-H8</f>
+        <f t="shared" si="1"/>
         <v>444.18200000000002</v>
       </c>
       <c r="I9" s="3">
-        <f>+I7-I8</f>
+        <f t="shared" si="1"/>
         <v>470.03100000000001</v>
       </c>
       <c r="J9" s="3">
-        <f>+J7-J8</f>
+        <f t="shared" si="1"/>
         <v>493.279</v>
       </c>
       <c r="K9" s="3">
-        <f>+K7-K8</f>
+        <f t="shared" si="1"/>
         <v>522.32600000000002</v>
       </c>
       <c r="L9" s="3">
-        <f>+L7-L8</f>
+        <f t="shared" si="1"/>
         <v>541.71299999999997</v>
       </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="Q9" s="1">
-        <f>+Q7-Q8</f>
+      <c r="M9" s="3">
+        <f t="shared" si="1"/>
+        <v>574.18299999999999</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" si="1"/>
+        <v>607.68299999999999</v>
+      </c>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="U9" s="1">
+        <f>+U7-U8</f>
         <v>716.06700000000001</v>
       </c>
-      <c r="R9" s="1">
-        <f>+R7-R8</f>
+      <c r="V9" s="1">
+        <f>+V7-V8</f>
         <v>1041.8009999999999</v>
       </c>
-      <c r="S9" s="1">
-        <f>+S7-S8</f>
+      <c r="W9" s="1">
+        <f>+W7-W8</f>
         <v>1416.71</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X9" s="1">
+        <f>+X7-X8</f>
+        <v>2170.2290000000003</v>
+      </c>
+      <c r="Y9" s="1">
+        <f>+Y7-Y8</f>
+        <v>2245.9049999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1057,19 +1131,32 @@
       <c r="L10" s="3">
         <v>198.18</v>
       </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="Q10" s="1">
+      <c r="M10" s="3">
+        <f>+L10</f>
+        <v>198.18</v>
+      </c>
+      <c r="N10" s="3">
+        <f>+M10</f>
+        <v>198.18</v>
+      </c>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="U10" s="1">
         <v>205.589</v>
       </c>
-      <c r="R10" s="1">
+      <c r="V10" s="1">
         <v>301.97000000000003</v>
       </c>
-      <c r="S10" s="1">
+      <c r="W10" s="1">
         <v>442.02199999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y10" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
@@ -1099,19 +1186,32 @@
       <c r="L11" s="3">
         <v>293.79399999999998</v>
       </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="Q11" s="1">
+      <c r="M11" s="3">
+        <f>+L11</f>
+        <v>293.79399999999998</v>
+      </c>
+      <c r="N11" s="3">
+        <f>+M11</f>
+        <v>293.79399999999998</v>
+      </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="U11" s="1">
         <v>452.08100000000002</v>
       </c>
-      <c r="R11" s="1">
+      <c r="V11" s="1">
         <v>649.68100000000004</v>
       </c>
-      <c r="S11" s="1">
+      <c r="W11" s="1">
         <v>886.06899999999996</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y11" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1141,125 +1241,174 @@
       <c r="L12" s="3">
         <v>72.596999999999994</v>
       </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="Q12" s="1">
+      <c r="M12" s="3">
+        <f>+L12</f>
+        <v>72.596999999999994</v>
+      </c>
+      <c r="N12" s="3">
+        <f>+M12</f>
+        <v>72.596999999999994</v>
+      </c>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="U12" s="1">
         <v>109.22499999999999</v>
       </c>
-      <c r="R12" s="1">
+      <c r="V12" s="1">
         <v>144.94900000000001</v>
       </c>
-      <c r="S12" s="1">
+      <c r="W12" s="1">
         <v>197.72</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y12" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3">
-        <f>+E10+E11+E12</f>
+        <f t="shared" ref="E13:N13" si="2">+E10+E11+E12</f>
         <v>394.04399999999998</v>
       </c>
       <c r="F13" s="3">
-        <f>+F10+F11+F12</f>
+        <f t="shared" si="2"/>
         <v>402.87900000000002</v>
       </c>
       <c r="G13" s="3">
-        <f>+G10+G11+G12</f>
+        <f t="shared" si="2"/>
         <v>435.77099999999996</v>
       </c>
       <c r="H13" s="3">
-        <f>+H10+H11+H12</f>
+        <f t="shared" si="2"/>
         <v>496.471</v>
       </c>
       <c r="I13" s="3">
-        <f>+I10+I11+I12</f>
+        <f t="shared" si="2"/>
         <v>489.62699999999995</v>
       </c>
       <c r="J13" s="3">
-        <f>+J10+J11+J12</f>
+        <f t="shared" si="2"/>
         <v>514.07799999999997</v>
       </c>
       <c r="K13" s="3">
-        <f>+K10+K11+K12</f>
+        <f t="shared" si="2"/>
         <v>544.77700000000004</v>
       </c>
       <c r="L13" s="3">
-        <f>+L10+L11+L12</f>
+        <f t="shared" si="2"/>
         <v>564.57100000000003</v>
       </c>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="Q13" s="1">
-        <f>Q12+Q11+Q10</f>
+      <c r="M13" s="3">
+        <f t="shared" si="2"/>
+        <v>564.57100000000003</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="2"/>
+        <v>564.57100000000003</v>
+      </c>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="U13" s="1">
+        <f>U12+U11+U10</f>
         <v>766.89499999999998</v>
       </c>
-      <c r="R13" s="1">
-        <f>R12+R11+R10</f>
+      <c r="V13" s="1">
+        <f>V12+V11+V10</f>
         <v>1096.6000000000001</v>
       </c>
-      <c r="S13" s="1">
-        <f>S12+S11+S10</f>
+      <c r="W13" s="1">
+        <f>W12+W11+W10</f>
         <v>1525.8109999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X13" s="1">
+        <f>X12+X11+X10</f>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="1">
+        <f>Y12+Y11+Y10</f>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3">
-        <f>+E9-E13</f>
+        <f t="shared" ref="E14:N14" si="3">+E9-E13</f>
         <v>-32.213000000000022</v>
       </c>
       <c r="F14" s="3">
-        <f>+F9-F13</f>
+        <f t="shared" si="3"/>
         <v>-13.48599999999999</v>
       </c>
       <c r="G14" s="3">
-        <f>+G9-G13</f>
+        <f t="shared" si="3"/>
         <v>-14.479999999999961</v>
       </c>
       <c r="H14" s="3">
-        <f>+H9-H13</f>
+        <f t="shared" si="3"/>
         <v>-52.288999999999987</v>
       </c>
       <c r="I14" s="3">
-        <f>+I9-I13</f>
+        <f t="shared" si="3"/>
         <v>-19.595999999999947</v>
       </c>
       <c r="J14" s="3">
-        <f>+J9-J13</f>
+        <f t="shared" si="3"/>
         <v>-20.798999999999978</v>
       </c>
       <c r="K14" s="3">
-        <f>+K9-K13</f>
+        <f t="shared" si="3"/>
         <v>-22.451000000000022</v>
       </c>
       <c r="L14" s="3">
-        <f>+L9-L13</f>
+        <f t="shared" si="3"/>
         <v>-22.858000000000061</v>
       </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="Q14" s="1">
-        <f>+Q9-Q13</f>
+      <c r="M14" s="3">
+        <f t="shared" si="3"/>
+        <v>9.6119999999999663</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" si="3"/>
+        <v>43.111999999999966</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="U14" s="1">
+        <f>+U9-U13</f>
         <v>-50.827999999999975</v>
       </c>
-      <c r="R14" s="1">
-        <f>+R9-R13</f>
+      <c r="V14" s="1">
+        <f>+V9-V13</f>
         <v>-54.799000000000206</v>
       </c>
-      <c r="S14" s="1">
-        <f>+S9-S13</f>
+      <c r="W14" s="1">
+        <f>+W9-W13</f>
         <v>-109.10099999999989</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X14" s="1">
+        <f>+X9-X13</f>
+        <v>2170.2290000000003</v>
+      </c>
+      <c r="Y14" s="1">
+        <f>+Y9-Y13</f>
+        <v>995.90499999999975</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
@@ -1291,66 +1440,78 @@
         <f>20.37-0.901+1.784</f>
         <v>21.253</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="U15" s="1">
         <v>-29.986999999999998</v>
       </c>
-      <c r="R15" s="1">
+      <c r="V15" s="1">
         <v>-19.018999999999998</v>
       </c>
-      <c r="S15" s="1">
+      <c r="W15" s="1">
         <v>4.4089999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="Y15" s="1">
+        <f>SUM(K15:N15)</f>
+        <v>52.206000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="3">
-        <f>+E14+E15</f>
+        <f t="shared" ref="E16:L16" si="4">+E14+E15</f>
         <v>-29.663000000000022</v>
       </c>
       <c r="F16" s="3">
-        <f>+F14+F15</f>
+        <f t="shared" si="4"/>
         <v>-12.893999999999989</v>
       </c>
       <c r="G16" s="3">
-        <f>+G14+G15</f>
+        <f t="shared" si="4"/>
         <v>-5.731999999999962</v>
       </c>
       <c r="H16" s="3">
-        <f>+H14+H15</f>
+        <f t="shared" si="4"/>
         <v>-39.353999999999985</v>
       </c>
       <c r="I16" s="3">
-        <f>+I14+I15</f>
+        <f t="shared" si="4"/>
         <v>-6.0289999999999466</v>
       </c>
       <c r="J16" s="3">
-        <f>+J14+J15</f>
+        <f t="shared" si="4"/>
         <v>-5.7009999999999774</v>
       </c>
       <c r="K16" s="3">
-        <f>+K14+K15</f>
+        <f t="shared" si="4"/>
         <v>8.5019999999999811</v>
       </c>
       <c r="L16" s="3">
-        <f>+L14+L15</f>
+        <f t="shared" si="4"/>
         <v>-1.6050000000000608</v>
       </c>
-      <c r="Q16" s="1">
-        <f>+Q14+Q15</f>
+      <c r="U16" s="1">
+        <f>+U14+U15</f>
         <v>-80.814999999999969</v>
       </c>
-      <c r="R16" s="1">
-        <f>+R14+R15</f>
+      <c r="V16" s="1">
+        <f>+V14+V15</f>
         <v>-73.818000000000211</v>
       </c>
-      <c r="S16" s="1">
-        <f>+S14+S15</f>
+      <c r="W16" s="1">
+        <f>+W14+W15</f>
         <v>-104.69199999999988</v>
       </c>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="X16" s="1">
+        <f>+X14+X15</f>
+        <v>2170.2290000000003</v>
+      </c>
+      <c r="Y16" s="1">
+        <f>+Y14+Y15</f>
+        <v>1048.1109999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
@@ -1378,17 +1539,21 @@
       <c r="L17" s="3">
         <v>11.753</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="U17" s="1">
         <v>4.2160000000000002</v>
       </c>
-      <c r="R17" s="1">
+      <c r="V17" s="1">
         <v>4.0190000000000001</v>
       </c>
-      <c r="S17" s="1">
+      <c r="W17" s="1">
         <v>8.0570000000000004</v>
       </c>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="Y17" s="1">
+        <f>SUM(K17:N17)</f>
+        <v>13.539</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
@@ -1409,84 +1574,108 @@
         <v>-47.922999999999988</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" ref="I18:L18" si="1">+I16-I17</f>
+        <f t="shared" ref="I18:L18" si="5">+I16-I17</f>
         <v>-6.0289999999999466</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-10.060999999999979</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>6.7159999999999815</v>
       </c>
       <c r="L18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-13.358000000000061</v>
       </c>
-      <c r="Q18" s="1">
-        <f>+Q16-Q17</f>
+      <c r="U18" s="1">
+        <f>+U16-U17</f>
         <v>-85.030999999999963</v>
       </c>
-      <c r="R18" s="1">
-        <f>+R16-R17</f>
+      <c r="V18" s="1">
+        <f>+V16-V17</f>
         <v>-77.837000000000216</v>
       </c>
-      <c r="S18" s="1">
-        <f>+S16-S17</f>
+      <c r="W18" s="1">
+        <f>+W16-W17</f>
         <v>-112.74899999999988</v>
       </c>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="X18" s="1">
+        <f>+X16-X17</f>
+        <v>2170.2290000000003</v>
+      </c>
+      <c r="Y18" s="1">
+        <f>+Y16-Y17</f>
+        <v>1034.5719999999997</v>
+      </c>
+      <c r="Z18" s="1">
+        <f>+Y18*1.3</f>
+        <v>1344.9435999999996</v>
+      </c>
+      <c r="AA18" s="1">
+        <f>+Z18*1.3</f>
+        <v>1748.4266799999996</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="6">
-        <f>+E18/E20</f>
+        <f t="shared" ref="E19:L19" si="6">+E18/E20</f>
         <v>-0.65348367903135252</v>
       </c>
       <c r="F19" s="6">
-        <f>+F18/F20</f>
+        <f t="shared" si="6"/>
         <v>-0.32053620841617625</v>
       </c>
       <c r="G19" s="6">
-        <f>+G18/G20</f>
+        <f t="shared" si="6"/>
         <v>-0.163974005593223</v>
       </c>
       <c r="H19" s="6">
-        <f>+H18/H20</f>
+        <f t="shared" si="6"/>
         <v>-0.96418727239804403</v>
       </c>
       <c r="I19" s="6">
-        <f>+I18/I20</f>
+        <f t="shared" si="6"/>
         <v>-0.12045713372360085</v>
       </c>
       <c r="J19" s="6">
-        <f>+J18/J20</f>
+        <f t="shared" si="6"/>
         <v>-0.19983315788428266</v>
       </c>
       <c r="K19" s="6">
-        <f>+K18/K20</f>
+        <f t="shared" si="6"/>
         <v>0.13041283156627406</v>
       </c>
       <c r="L19" s="6">
-        <f>+L18/L20</f>
+        <f t="shared" si="6"/>
         <v>-0.26189589255955414</v>
       </c>
-      <c r="Q19" s="8">
-        <f>+Q18/Q20</f>
+      <c r="U19" s="8">
+        <f>+U18/U20</f>
         <v>-1.8998368970216941</v>
       </c>
-      <c r="R19" s="8">
-        <f>+R18/R20</f>
+      <c r="V19" s="8">
+        <f>+V18/V20</f>
         <v>-1.6599560683286818</v>
       </c>
-      <c r="S19" s="8">
-        <f>+S18/S20</f>
+      <c r="W19" s="8">
+        <f>+W18/W20</f>
         <v>-2.3457609487152791</v>
       </c>
-    </row>
-    <row r="20" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X19" s="8">
+        <f>+X18/X20</f>
+        <v>45.151960886299811</v>
+      </c>
+      <c r="Y19" s="8">
+        <f>+Y18/Y20</f>
+        <v>21.524435660043686</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
@@ -1518,17 +1707,29 @@
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
-      <c r="Q20" s="1">
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="U20" s="1">
         <v>44.756999999999998</v>
       </c>
-      <c r="R20" s="1">
+      <c r="V20" s="1">
         <v>46.890999999999998</v>
       </c>
-      <c r="S20" s="1">
+      <c r="W20" s="1">
         <v>48.064999999999998</v>
       </c>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="X20" s="1">
+        <f>+W20</f>
+        <v>48.064999999999998</v>
+      </c>
+      <c r="Y20" s="1">
+        <f>+X20</f>
+        <v>48.064999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>34</v>
       </c>
@@ -1548,26 +1749,30 @@
         <f>+L7/H7-1</f>
         <v>0.20427941293197605</v>
       </c>
-      <c r="R23" s="9">
-        <f>+R7/Q7-1</f>
+      <c r="V23" s="9">
+        <f>+V7/U7-1</f>
         <v>0.47295549621415445</v>
       </c>
-      <c r="S23" s="9">
-        <f>+S7/R7-1</f>
+      <c r="W23" s="9">
+        <f>+W7/V7-1</f>
         <v>0.33084100509126935</v>
       </c>
-      <c r="T23" s="9">
-        <f>+T7/S7-1</f>
-        <v>0.51476381148362549</v>
-      </c>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="X23" s="9">
+        <f>+X7/W7-1</f>
+        <v>0.25376537650298769</v>
+      </c>
+      <c r="Y23" s="9">
+        <f>+Y7/X7-1</f>
+        <v>0.21072200214816017</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.2">
       <c r="L24" s="7"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.2">
       <c r="K26" s="3"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.2">
       <c r="G28" s="2">
         <v>81.069999999999993</v>
       </c>
@@ -1583,14 +1788,14 @@
         <v>117.828</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="Q31" s="1">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="U31" s="1">
         <v>88.912999999999997</v>
       </c>
-      <c r="R31" s="1">
+      <c r="V31" s="1">
         <v>238.72800000000001</v>
       </c>
-      <c r="S31" s="1">
+      <c r="W31" s="1">
         <v>273.17399999999998</v>
       </c>
     </row>
